--- a/Reports/all/test1 - Copy/x1 - Copy (7)/日本語 - Copy (6)Analysis.xlsx
+++ b/Reports/all/test1 - Copy/x1 - Copy (7)/日本語 - Copy (6)Analysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Date Tested (mm/dd/yy hh:mm:ss)</t>
   </si>
@@ -32,10 +32,13 @@
     <t>lpnteqbgvjtxzjtotuvg</t>
   </si>
   <si>
-    <t>12/12/22 12:25:59</t>
+    <t>12/12/22 12:26:59</t>
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>12/12/22 12:25:59</t>
   </si>
   <si>
     <t>Fail</t>
@@ -129,12 +132,18 @@
         <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -142,7 +151,7 @@
     </row>
     <row r="4">
       <c r="G4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -150,7 +159,7 @@
     </row>
     <row r="5">
       <c r="G5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -158,10 +167,10 @@
     </row>
     <row r="6">
       <c r="G6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/all/test1 - Copy/x1 - Copy (7)/日本語 - Copy (6)Analysis.xlsx
+++ b/Reports/all/test1 - Copy/x1 - Copy (7)/日本語 - Copy (6)Analysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Date Tested (mm/dd/yy hh:mm:ss)</t>
   </si>
@@ -32,10 +32,13 @@
     <t>lpnteqbgvjtxzjtotuvg</t>
   </si>
   <si>
-    <t>12/12/22 12:26:59</t>
+    <t>12/12/22 12:27:59</t>
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>12/12/22 12:26:59</t>
   </si>
   <si>
     <t>12/12/22 12:25:59</t>
@@ -132,7 +135,7 @@
         <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -143,15 +146,21 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -159,7 +168,7 @@
     </row>
     <row r="5">
       <c r="G5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -167,10 +176,10 @@
     </row>
     <row r="6">
       <c r="G6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/all/test1 - Copy/x1 - Copy (7)/日本語 - Copy (6)Analysis.xlsx
+++ b/Reports/all/test1 - Copy/x1 - Copy (7)/日本語 - Copy (6)Analysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Date Tested (mm/dd/yy hh:mm:ss)</t>
   </si>
@@ -29,13 +29,16 @@
     <t>007</t>
   </si>
   <si>
-    <t>lpnteqbgvjtxzjtotuvg</t>
+    <t>larevgidqdvwewdijacm</t>
+  </si>
+  <si>
+    <t>12/12/22 12:28:59</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
   <si>
     <t>12/12/22 12:27:59</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>12/12/22 12:26:59</t>
@@ -135,7 +138,7 @@
         <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -146,7 +149,7 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -160,15 +163,21 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -176,10 +185,10 @@
     </row>
     <row r="6">
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/all/test1 - Copy/x1 - Copy (7)/日本語 - Copy (6)Analysis.xlsx
+++ b/Reports/all/test1 - Copy/x1 - Copy (7)/日本語 - Copy (6)Analysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Date Tested (mm/dd/yy hh:mm:ss)</t>
   </si>
@@ -32,10 +32,13 @@
     <t>larevgidqdvwewdijacm</t>
   </si>
   <si>
+    <t>12/12/22 12:29:59</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>12/12/22 12:28:59</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>12/12/22 12:27:59</t>
@@ -138,7 +141,7 @@
         <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
@@ -149,7 +152,7 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -163,7 +166,7 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -177,18 +180,24 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/all/test1 - Copy/x1 - Copy (7)/日本語 - Copy (6)Analysis.xlsx
+++ b/Reports/all/test1 - Copy/x1 - Copy (7)/日本語 - Copy (6)Analysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Date Tested (mm/dd/yy hh:mm:ss)</t>
   </si>
@@ -32,10 +32,13 @@
     <t>larevgidqdvwewdijacm</t>
   </si>
   <si>
+    <t>12/12/22 12:30:59</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>12/12/22 12:29:59</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>12/12/22 12:28:59</t>
@@ -104,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -141,7 +144,7 @@
         <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
@@ -152,7 +155,7 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -166,7 +169,7 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -180,7 +183,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -194,10 +197,18 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/all/test1 - Copy/x1 - Copy (7)/日本語 - Copy (6)Analysis.xlsx
+++ b/Reports/all/test1 - Copy/x1 - Copy (7)/日本語 - Copy (6)Analysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Date Tested (mm/dd/yy hh:mm:ss)</t>
   </si>
@@ -32,10 +32,13 @@
     <t>larevgidqdvwewdijacm</t>
   </si>
   <si>
+    <t>12/12/22 12:31:59</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>12/12/22 12:30:59</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>12/12/22 12:29:59</t>
@@ -107,7 +110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -144,7 +147,7 @@
         <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
@@ -155,7 +158,7 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -169,7 +172,7 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -183,7 +186,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -197,10 +200,10 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="7">
@@ -208,6 +211,14 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Reports/all/test1 - Copy/x1 - Copy (7)/日本語 - Copy (6)Analysis.xlsx
+++ b/Reports/all/test1 - Copy/x1 - Copy (7)/日本語 - Copy (6)Analysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Date Tested (mm/dd/yy hh:mm:ss)</t>
   </si>
@@ -32,10 +32,13 @@
     <t>larevgidqdvwewdijacm</t>
   </si>
   <si>
+    <t>12/12/22 12:32:59</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>12/12/22 12:31:59</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>12/12/22 12:30:59</t>
@@ -110,7 +113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -147,7 +150,7 @@
         <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="3">
@@ -158,7 +161,7 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -172,7 +175,7 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -186,7 +189,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -200,10 +203,10 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="7">
@@ -219,6 +222,14 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Reports/all/test1 - Copy/x1 - Copy (7)/日本語 - Copy (6)Analysis.xlsx
+++ b/Reports/all/test1 - Copy/x1 - Copy (7)/日本語 - Copy (6)Analysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Date Tested (mm/dd/yy hh:mm:ss)</t>
   </si>
@@ -32,10 +32,13 @@
     <t>larevgidqdvwewdijacm</t>
   </si>
   <si>
+    <t>12/12/22 12:33:59</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>12/12/22 12:32:59</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>12/12/22 12:31:59</t>
@@ -113,7 +116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -150,7 +153,7 @@
         <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
@@ -161,7 +164,7 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -175,7 +178,7 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -189,7 +192,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -203,10 +206,10 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
@@ -230,6 +233,14 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Reports/all/test1 - Copy/x1 - Copy (7)/日本語 - Copy (6)Analysis.xlsx
+++ b/Reports/all/test1 - Copy/x1 - Copy (7)/日本語 - Copy (6)Analysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Date Tested (mm/dd/yy hh:mm:ss)</t>
   </si>
@@ -32,10 +32,13 @@
     <t>larevgidqdvwewdijacm</t>
   </si>
   <si>
+    <t>12/12/22 12:34:59</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>12/12/22 12:33:59</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>12/12/22 12:32:59</t>
@@ -116,7 +119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -153,7 +156,7 @@
         <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="3">
@@ -164,7 +167,7 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -178,7 +181,7 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -192,7 +195,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -206,10 +209,10 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="7">
@@ -241,6 +244,14 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
